--- a/output/excel/@typedefine.xlsx
+++ b/output/excel/@typedefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10870"/>
+    <workbookView windowWidth="25600" windowHeight="10870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="enumdef" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TestEnum</t>
   </si>
@@ -50,16 +50,22 @@
     <t>敌人</t>
   </si>
   <si>
-    <t>Vec3</t>
-  </si>
-  <si>
-    <t>name:x type:float</t>
-  </si>
-  <si>
-    <t>name:y type:float</t>
-  </si>
-  <si>
-    <t>name:z type:float</t>
+    <t>TestClass</t>
+  </si>
+  <si>
+    <t>x:float</t>
+  </si>
+  <si>
+    <t>y:float</t>
+  </si>
+  <si>
+    <t>z:float</t>
+  </si>
+  <si>
+    <t>str:text</t>
+  </si>
+  <si>
+    <t>lan:textmult</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1138,10 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1190,20 +1196,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="23.9166666666667" customWidth="1"/>
     <col min="4" max="4" width="22.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="14" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,6 +1221,12 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
